--- a/Fase 2/Evidencias Proyecto/Sprints/Burdown Chart/Burndown Chart – Sprint 6 (22–26 Septiembre).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Burdown Chart/Burndown Chart – Sprint 6 (22–26 Septiembre).xlsx
@@ -306,11 +306,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="152110612"/>
-        <c:axId val="427723380"/>
+        <c:axId val="1333777552"/>
+        <c:axId val="1102086429"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152110612"/>
+        <c:axId val="1333777552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -362,10 +362,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427723380"/>
+        <c:crossAx val="1102086429"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="427723380"/>
+        <c:axId val="1102086429"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +440,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152110612"/>
+        <c:crossAx val="1333777552"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -710,7 +710,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -720,7 +720,7 @@
     <col customWidth="1" min="11" max="11" width="37.63"/>
   </cols>
   <sheetData>
-    <row r="6">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
@@ -782,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
@@ -803,7 +803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
@@ -824,7 +824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
